--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed5/result_data_RandomForest.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.689800000000004</v>
+        <v>-8.868900000000005</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.420699999999993</v>
+        <v>-8.117699999999999</v>
       </c>
     </row>
     <row r="10">
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.0376</v>
+        <v>-21.9686</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.4829</v>
+        <v>-12.14820000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.36739999999999</v>
+        <v>-21.36269999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.148399999999988</v>
+        <v>-8.968399999999992</v>
       </c>
     </row>
     <row r="14">
@@ -634,12 +634,12 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.331599999999998</v>
+        <v>-8.042400000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.65799999999999</v>
+        <v>-21.6728</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.773100000000002</v>
+        <v>-7.972499999999999</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.890499999999992</v>
+        <v>-8.702399999999994</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.0252</v>
+        <v>-7.958500000000003</v>
       </c>
     </row>
     <row r="23">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.0146</v>
+        <v>-12.09539999999999</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.652699999999993</v>
+        <v>-7.332499999999999</v>
       </c>
     </row>
     <row r="25">
@@ -802,12 +802,12 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.617099999999998</v>
+        <v>-7.721299999999996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.72059999999999</v>
+        <v>-21.8142</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.8855</v>
+        <v>-21.98520000000001</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.3297</v>
+        <v>-13.58229999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.52989999999999</v>
+        <v>-21.4925</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.72809999999999</v>
+        <v>-21.7298</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.05860000000001</v>
+        <v>-12.8039</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-10.96</v>
+        <v>-10.74840000000002</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.66299999999998</v>
+        <v>-19.86729999999998</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.66320000000001</v>
+        <v>-12.68890000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.45779999999999</v>
+        <v>-13.80669999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.99459999999997</v>
+        <v>-20.05539999999997</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.793399999999993</v>
+        <v>-8.88709999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.427399999999999</v>
+        <v>-8.304500000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.63180000000001</v>
+        <v>-13.1076</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.97950000000001</v>
+        <v>-21.93060000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-14.14589999999998</v>
+        <v>-13.97100000000001</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.150399999999999</v>
+        <v>-8.083499999999997</v>
       </c>
     </row>
     <row r="53">
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.90940000000001</v>
+        <v>-21.88750000000001</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.2846</v>
+        <v>-13.54029999999999</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.95050000000001</v>
+        <v>-21.99370000000002</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.11940000000001</v>
+        <v>-21.9653</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1222,7 +1222,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.555800000000003</v>
+        <v>-8.887499999999999</v>
       </c>
     </row>
     <row r="57">
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.58969999999997</v>
+        <v>-21.55039999999996</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.69459999999997</v>
+        <v>-21.65739999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1432,12 +1432,12 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.133199999999999</v>
+        <v>-7.131599999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.73299999999999</v>
+        <v>-21.78379999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1446,12 +1446,12 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.399800000000002</v>
+        <v>-7.381400000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.91810000000002</v>
+        <v>-20.11880000000002</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1527,10 +1527,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.47770000000001</v>
+        <v>-12.37280000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.822499999999993</v>
+        <v>-8.848699999999994</v>
       </c>
     </row>
     <row r="79">
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.40699999999999</v>
+        <v>-12.02</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.69839999999999</v>
+        <v>-21.7106</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.934200000000005</v>
+        <v>-8.095099999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1628,12 +1628,12 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-9.351299999999991</v>
+        <v>-9.019500000000004</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.05790000000002</v>
+        <v>-21.98860000000002</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.572300000000002</v>
+        <v>-8.352800000000002</v>
       </c>
     </row>
     <row r="87">
@@ -1698,12 +1698,12 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.618099999999994</v>
+        <v>-6.625999999999994</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.57319999999998</v>
+        <v>-20.51169999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.51590000000001</v>
+        <v>-21.55060000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.284399999999989</v>
+        <v>-7.960099999999994</v>
       </c>
     </row>
     <row r="97">
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.3809</v>
+        <v>-10.5383</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.68729999999998</v>
+        <v>-21.8288</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.80479999999999</v>
+        <v>-11.8664</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.10319999999999</v>
+        <v>-12.1922</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.8191</v>
+        <v>-12.5745</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1880,12 +1880,12 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.721000000000002</v>
+        <v>-8.636699999999996</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.22279999999999</v>
+        <v>-21.35039999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-19.96299999999998</v>
+        <v>-20.11729999999998</v>
       </c>
       <c r="B105" t="n">
         <v>9.01</v>
